--- a/Humanitarian_VS_Technical/Data/Professions/Ветеринария.xlsx
+++ b/Humanitarian_VS_Technical/Data/Professions/Ветеринария.xlsx
@@ -671,6 +671,7 @@
           <t>Терапевт</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="n">
@@ -699,6 +700,7 @@
           <t>Хирург</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="n">
@@ -727,6 +729,7 @@
           <t>Медсестра</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="n">
@@ -755,6 +758,7 @@
           <t>Невролог</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="n">
@@ -783,6 +787,7 @@
           <t>Кардиолог</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="n">
@@ -811,6 +816,7 @@
           <t>Дерматолог</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="n">
@@ -839,6 +845,7 @@
           <t>Нефролог</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="n">
@@ -867,6 +874,7 @@
           <t>Стоматолог</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="n">
@@ -895,6 +903,7 @@
           <t>Офтальмолог</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="n">
@@ -923,6 +932,7 @@
           <t>Родентология</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="8" t="n">
@@ -951,6 +961,7 @@
           <t>Гастроэнтеролог</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="n">
@@ -979,6 +990,7 @@
           <t>Ветеринарный врач визуальной диагностики</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="n">
@@ -1007,6 +1019,7 @@
           <t>Рентгенолог</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="n">
@@ -1035,6 +1048,7 @@
           <t>Реаниматолог</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="n">
@@ -1063,6 +1077,7 @@
           <t>Ветеринарный врач - лаборант</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="n">
@@ -1091,6 +1106,7 @@
           <t>Цитолог</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="8" t="n">
@@ -1119,6 +1135,7 @@
           <t>Патоморфолог</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="n">
@@ -1147,6 +1164,7 @@
           <t>Анестезиолог</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="n">
@@ -1175,6 +1193,7 @@
           <t>Онколог</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="n">
@@ -1231,6 +1250,7 @@
           <t>Реабилитолог</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="8" t="n">
@@ -1259,11 +1279,7 @@
           <t>Экзотолог</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Гуманитарный</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="n">
@@ -1292,6 +1308,7 @@
           <t>Эндокринолог</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="n">
@@ -1320,6 +1337,7 @@
           <t>Диетолог</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="n">
@@ -1348,6 +1366,7 @@
           <t>Репродуктолог</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="n"/>
